--- a/issues+history/通过多个点绘制函数图像1.xlsx
+++ b/issues+history/通过多个点绘制函数图像1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDDB33-8EDC-D64E-9F45-34FBB5322020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F56472-2C0F-457F-97A9-94FA85138126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="幂函数" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="分式线性函数" sheetId="8" r:id="rId8"/>
     <sheet name="二次三项式" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -613,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -629,11 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -678,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -718,9 +726,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,26 +761,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,26 +796,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -998,39 +972,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W47"/>
+  <dimension ref="B1:W47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="9" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" customWidth="1"/>
+    <col min="4" max="9" width="5.81640625" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="3.1640625" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1"/>
-    <col min="15" max="22" width="5.83203125" customWidth="1"/>
-    <col min="23" max="23" width="4.5" customWidth="1"/>
+    <col min="11" max="12" width="5.81640625" customWidth="1"/>
+    <col min="13" max="13" width="3.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.36328125" customWidth="1"/>
+    <col min="15" max="22" width="5.81640625" customWidth="1"/>
+    <col min="23" max="23" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="2:23">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="2:23">
       <c r="B2" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="9"/>
+    <row r="3" spans="2:23">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1119,8 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="9"/>
+    <row r="4" spans="2:23">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1188,16 +1160,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="2:23">
       <c r="B5" s="2"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="2:23">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="2:23">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1354,15 +1325,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="2:23">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="2:23">
       <c r="B10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="2:23">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="2:23">
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1519,15 +1490,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="2:23">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="2:23">
       <c r="B14" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="2:23">
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="2:23">
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
@@ -2799,38 +2770,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="B1:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="125" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" customWidth="1"/>
-    <col min="4" max="9" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="9" width="5.81640625" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1"/>
-    <col min="15" max="22" width="5.83203125" customWidth="1"/>
-    <col min="23" max="23" width="4.5" customWidth="1"/>
+    <col min="11" max="12" width="5.81640625" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" customWidth="1"/>
+    <col min="14" max="14" width="6.36328125" customWidth="1"/>
+    <col min="15" max="22" width="5.81640625" customWidth="1"/>
+    <col min="23" max="23" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="2:23">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="2:23">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="9"/>
+    <row r="3" spans="2:23">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2919,8 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="9"/>
+    <row r="4" spans="2:23">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2988,16 +2957,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="2:23">
       <c r="B5" s="2"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="2:23">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3086,7 +3054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="2:23">
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
@@ -3154,15 +3122,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="2:23">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="2:23">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="2:23">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="2:23">
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
@@ -3319,41 +3287,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="1:23">
+    <row r="13" spans="2:23">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="2:23">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="2:23">
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
@@ -3442,7 +3389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="2:23">
       <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
@@ -3510,15 +3457,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="2:23">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="2:23">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
@@ -3607,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="2:23">
       <c r="B21" s="6" t="s">
         <v>0</v>
       </c>
@@ -3675,15 +3622,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="2:23">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="2:23">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="2:23">
       <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
@@ -3772,7 +3719,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="2:23">
       <c r="B25" s="6" t="s">
         <v>0</v>
       </c>
@@ -3840,16 +3787,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12" t="s">
+    <row r="27" spans="2:23">
+      <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="9"/>
+    </row>
+    <row r="28" spans="2:23">
       <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
@@ -3937,11 +3880,8 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="9"/>
+    </row>
+    <row r="29" spans="2:23">
       <c r="B29" s="6" t="s">
         <v>0</v>
       </c>
@@ -4008,25 +3948,16 @@
       <c r="W29" s="8">
         <v>20</v>
       </c>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="9"/>
+    </row>
+    <row r="30" spans="2:23">
       <c r="B30" s="2"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12" t="s">
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="9"/>
+    </row>
+    <row r="32" spans="2:23">
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
@@ -4114,11 +4045,8 @@
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-    </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="9"/>
+    </row>
+    <row r="33" spans="2:23">
       <c r="B33" s="6" t="s">
         <v>0</v>
       </c>
@@ -4185,46 +4113,16 @@
       <c r="W33" s="8">
         <v>20</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-    </row>
-    <row r="34" spans="1:25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12" t="s">
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="9"/>
+    </row>
+    <row r="36" spans="2:23">
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
@@ -4312,11 +4210,8 @@
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="9"/>
+    </row>
+    <row r="37" spans="2:23">
       <c r="B37" s="6" t="s">
         <v>0</v>
       </c>
@@ -4383,332 +4278,18 @@
       <c r="W37" s="8">
         <v>20</v>
       </c>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-    </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-    </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-    </row>
-    <row r="46" spans="1:25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-    </row>
-    <row r="47" spans="1:25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-    </row>
-    <row r="48" spans="1:25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4724,19 +4305,19 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="23" width="3.83203125" customWidth="1"/>
-    <col min="24" max="24" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" customWidth="1"/>
+    <col min="3" max="23" width="3.81640625" customWidth="1"/>
+    <col min="24" max="24" width="5.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4">
@@ -4825,10 +4406,10 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -4917,10 +4498,10 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4">
@@ -5009,10 +4590,10 @@
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4">
@@ -5101,10 +4682,10 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4">
@@ -5193,10 +4774,10 @@
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -5285,10 +4866,10 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4">
@@ -5377,255 +4958,254 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
         <f>-3*C12+2</f>
         <v>2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <f t="shared" ref="D10:T10" si="7">-3*D12+2</f>
         <v>-1</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <f t="shared" si="7"/>
         <v>-7</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <f t="shared" si="7"/>
         <v>-13</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <f t="shared" si="7"/>
         <v>-16</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <f t="shared" si="7"/>
         <v>-19</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <f t="shared" si="7"/>
         <v>-22</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="10">
         <f t="shared" si="7"/>
         <v>-25</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <f t="shared" si="7"/>
         <v>-28</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="10">
         <f t="shared" si="7"/>
         <v>-31</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f t="shared" si="7"/>
         <v>-34</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="10">
         <f t="shared" si="7"/>
         <v>-37</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <f t="shared" si="7"/>
         <v>-40</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="10">
         <f t="shared" si="7"/>
         <v>-43</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="10">
         <f t="shared" si="7"/>
         <v>-46</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="10">
         <f t="shared" si="7"/>
         <v>-49</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="10">
         <f>-3*U12+2</f>
         <v>-52</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="10">
         <f t="shared" ref="V10" si="8">-3*V12+2</f>
         <v>-55</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="11">
         <f t="shared" ref="W10" si="9">-3*W12+2</f>
         <v>-58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
         <f>-4*C12+2</f>
         <v>2</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <f t="shared" ref="D11:W11" si="10">-4*D12+2</f>
         <v>-2</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <f t="shared" si="10"/>
         <v>-6</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <f t="shared" si="10"/>
         <v>-10</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <f t="shared" si="10"/>
         <v>-14</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <f t="shared" si="10"/>
         <v>-18</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="10">
         <f t="shared" si="10"/>
         <v>-22</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="10">
         <f t="shared" si="10"/>
         <v>-26</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <f t="shared" si="10"/>
         <v>-30</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="10">
         <f t="shared" si="10"/>
         <v>-34</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="10">
         <f t="shared" si="10"/>
         <v>-38</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="10">
         <f t="shared" si="10"/>
         <v>-42</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <f t="shared" si="10"/>
         <v>-46</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="10">
         <f t="shared" si="10"/>
         <v>-50</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="10">
         <f t="shared" si="10"/>
         <v>-54</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="10">
         <f t="shared" si="10"/>
         <v>-58</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="10">
         <f t="shared" si="10"/>
         <v>-62</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="10">
         <f t="shared" si="10"/>
         <v>-66</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="10">
         <f t="shared" si="10"/>
         <v>-70</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="10">
         <f t="shared" si="10"/>
         <v>-74</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="11">
         <f t="shared" si="10"/>
         <v>-78</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
         <v>3</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <v>4</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>5</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>6</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>7</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="13">
         <v>8</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="13">
         <v>9</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="13">
         <v>10</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="13">
         <v>11</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="13">
         <v>12</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="13">
         <v>13</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="13">
         <v>14</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="13">
         <v>15</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="13">
         <v>16</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="13">
         <v>17</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="13">
         <v>18</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="13">
         <v>19</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="14">
         <v>20</v>
       </c>
     </row>
@@ -5643,409 +5223,408 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="4" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" customWidth="1"/>
+    <col min="2" max="2" width="2.6328125" customWidth="1"/>
+    <col min="3" max="4" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20"/>
+      <c r="A1" s="17"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <f>45*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <f>45*$D$26+2</f>
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
         <f>40*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <f>40*$D$26+2</f>
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
         <f>35*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <f>35*$D$26+2</f>
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <f>30*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <f>30*$D$26+2</f>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <f>25*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <f>25*$D$26+2</f>
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
         <f>20*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <f>20*$D$26+2</f>
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
         <f>15*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <f>15*$D$26+2</f>
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
         <f>14*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <f>14*$D$26+2</f>
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
         <f>13*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <f>13*$D$26+2</f>
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
         <f>12*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <f>12*$D$26+2</f>
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
         <f>11*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <f>11*$D$26+2</f>
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
         <f>10*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="11">
         <f>10*$D$26+2</f>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
         <f>9*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <f>9*$D$26+2</f>
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
         <f>8*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="11">
         <f>8*$D$26+2</f>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
         <f>7*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="11">
         <f>7*$D$26+2</f>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
         <f>6*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <f>6*$D$26+2</f>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
         <f>5*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="11">
         <f>5*$D$26+2</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
         <f>4*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="11">
         <f>4*$D$26+2</f>
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
         <f t="shared" ref="C20" si="0">2*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <f>3*$D$26+2</f>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
         <f>2*$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <f>2*$D$26+2</f>
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
         <f>$C$26+2</f>
         <v>2</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <f>$D$26+2</f>
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
         <f>$C$26/2+2</f>
         <v>2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="11">
         <f>$D$26/2+2</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
         <f>$C$26/5+2</f>
         <v>2</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <f>$D$26/5+2</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
         <f>$C$26/10+2</f>
         <v>2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <f>$D$26/10+2</f>
         <v>2.1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="B26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
         <v>1</v>
       </c>
     </row>
@@ -6063,21 +5642,21 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="10" max="13" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="6" width="4.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" customWidth="1"/>
+    <col min="10" max="13" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -6129,7 +5708,7 @@
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C7">
@@ -6181,7 +5760,7 @@
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C8">
@@ -6233,7 +5812,7 @@
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C9">
@@ -6285,7 +5864,7 @@
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C10">
@@ -6337,90 +5916,89 @@
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
         <f t="shared" ref="C11:G11" si="5">1/(C12^2+1)</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <f t="shared" si="5"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <f>1/(H12^2+1)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <f>1/(1+I12^2)</f>
         <v>0.5</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <f t="shared" ref="J11:M11" si="6">1/(1+J12^2)</f>
         <v>0.2</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="18">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="21">
         <f t="shared" si="6"/>
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22">
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
         <v>-5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>-4</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>-3</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>-2</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>-1</v>
       </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
-        <v>2</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>2</v>
+      </c>
+      <c r="K12" s="13">
         <v>3</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="13">
         <v>4</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>5</v>
       </c>
     </row>
@@ -6437,21 +6015,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EC536-9201-DA46-BCA2-90840B981328}">
   <dimension ref="A2:O8"/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="15" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="15" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -6511,58 +6089,58 @@
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
         <f>ABS(C8+1)+ABS(C8-1)</f>
         <v>6</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <f t="shared" ref="D3:O3" si="1">ABS(D8+1)+ABS(D8-1)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L3" s="21">
+      <c r="G3" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6571,58 +6149,58 @@
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
         <f>ABS(C8-1)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <f t="shared" ref="D4:O4" si="2">ABS(D8-1)</f>
         <v>3.5</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="G4" s="21">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="G4" s="18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H4" s="18">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="I4" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="I4" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
+      <c r="K4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="M4" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="21">
+      <c r="M4" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="18">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="18">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -6631,58 +6209,58 @@
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
         <f>ABS(C8+1)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <f t="shared" ref="D5:O5" si="3">ABS(D8+1)</f>
         <v>1.5</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="18">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="18">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -6691,58 +6269,58 @@
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
         <f>ABS(C8)+1</f>
         <v>4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <f t="shared" ref="D6:O6" si="4">ABS(D8)+1</f>
         <v>3.5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="18">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="18">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -6751,104 +6329,103 @@
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
         <f>ABS(C8)</f>
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <f t="shared" ref="D7:O7" si="5">ABS(D8)</f>
         <v>2.5</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="18">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="18">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
         <v>-3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>-2.5</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>-2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>-1.5</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>-1</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>-0.5</v>
       </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
         <v>0.5</v>
       </c>
-      <c r="K8" s="22">
-        <v>1</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
         <v>1.5</v>
       </c>
-      <c r="M8" s="22">
-        <v>2</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="M8" s="19">
+        <v>2</v>
+      </c>
+      <c r="N8" s="19">
         <v>2.5</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="19">
         <v>3</v>
       </c>
     </row>
@@ -6866,17 +6443,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="15" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="15" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -6936,58 +6513,58 @@
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
         <f>INT(C8+1)+INT(C8-1)</f>
         <v>-6</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <f t="shared" ref="D3:O3" si="1">INT(D8+1)+INT(D8-1)</f>
         <v>-6</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="I3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M3" s="21">
+      <c r="I3" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6996,58 +6573,58 @@
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
         <f>INT(C8-1)</f>
         <v>-4</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <f t="shared" ref="D4:O4" si="2">INT(D8-1)</f>
         <v>-4</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="18">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O4" s="21">
+      <c r="K4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="18">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -7056,58 +6633,58 @@
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
         <f>INT(C8+1)</f>
         <v>-2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <f t="shared" ref="D5:O5" si="3">INT(D8+1)</f>
         <v>-2</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -7116,58 +6693,58 @@
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
         <f>INT(C8)-1</f>
         <v>-4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <f t="shared" ref="D6:O6" si="4">INT(D8)-1</f>
         <v>-4</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7176,104 +6753,103 @@
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
         <f t="shared" ref="C7:O7" si="5">INT(C8)</f>
         <v>-3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="18">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="18">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
         <v>-3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>-2.5</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>-2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>-1.5</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>-1</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>-0.5</v>
       </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
         <v>0.5</v>
       </c>
-      <c r="K8" s="22">
-        <v>1</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
         <v>1.5</v>
       </c>
-      <c r="M8" s="22">
-        <v>2</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="M8" s="19">
+        <v>2</v>
+      </c>
+      <c r="N8" s="19">
         <v>2.5</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="19">
         <v>3</v>
       </c>
     </row>
@@ -7294,80 +6870,80 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="8" style="27" customWidth="1"/>
-    <col min="10" max="11" width="7.83203125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="8" style="27" customWidth="1"/>
-    <col min="14" max="14" width="7" style="27" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="8" style="24" customWidth="1"/>
+    <col min="10" max="11" width="7.81640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="6.81640625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="8" style="24" customWidth="1"/>
+    <col min="14" max="14" width="7" style="24" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
         <f>INT((2*(C10)+1)/(C10+1))</f>
         <v>2</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <f t="shared" ref="D2:O2" si="0">INT((2*(D10)+1)/(D10+1))</f>
         <v>2</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="e">
+      <c r="G2" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J2" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K2" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L2" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M2" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N2" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O2" s="25">
+      <c r="H2" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J2" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K2" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N2" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7376,58 +6952,58 @@
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
         <f>(3*C10+5)/(2*C10+2)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <f t="shared" ref="D3:O3" si="1">(3*D10+5)/(2*D10+2)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="G3" s="25" t="e">
+      <c r="G3" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="22">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="22">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="22">
         <f t="shared" si="1"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="K3" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L3" s="25">
+      <c r="K3" s="22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="22">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="22">
         <f t="shared" si="1"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="22">
         <f t="shared" si="1"/>
         <v>1.7857142857142858</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="22">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
@@ -7436,58 +7012,58 @@
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
         <f>1/((C10)^2-2*C10+3)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <f t="shared" ref="D4:O4" si="2">1/((D10)^2-2*D10+3)</f>
         <v>7.0175438596491224E-2</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <f t="shared" si="2"/>
         <v>0.12121212121212122</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="22">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="22">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="22">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="22">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="22">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="22">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="22">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
@@ -7496,58 +7072,58 @@
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
         <f>1/((C10)^2-3*C10-2)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <f t="shared" ref="D5:O5" si="3">1/((D10)^2-3*D10-2)</f>
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <f t="shared" si="3"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="22">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="22">
         <f t="shared" si="3"/>
         <v>-0.30769230769230771</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <f t="shared" si="3"/>
         <v>-0.23529411764705882</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="22">
         <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="22">
         <f t="shared" si="3"/>
         <v>-0.30769230769230771</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="22">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
@@ -7556,58 +7132,58 @@
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
         <f>1/((C10)^2)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <f t="shared" ref="D6:O6" si="4">1/((D10)^2)</f>
         <v>0.16</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <f t="shared" si="4"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I6" s="25" t="e">
+      <c r="I6" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <f t="shared" si="4"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="22">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <f>1/((N10)^2)</f>
         <v>0.16</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="22">
         <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
@@ -7616,58 +7192,58 @@
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25" t="e">
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="e">
         <f>1/(C10-INT(C10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <f t="shared" ref="D7:O7" si="5">1/(D10-INT(D10))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="25" t="e">
+      <c r="E7" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G7" s="25" t="e">
+      <c r="G7" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I7" s="25" t="e">
+      <c r="I7" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K7" s="25" t="e">
+      <c r="K7" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M7" s="25" t="e">
+      <c r="M7" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O7" s="25" t="e">
+      <c r="O7" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -7676,58 +7252,58 @@
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
         <f>1/INT(C10)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <f t="shared" ref="D8:O8" si="6">1/INT(D10)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="22">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="I8" s="25" t="e">
+      <c r="I8" s="22" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="25" t="e">
+      <c r="J8" s="22" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="22">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="22">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="22">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
@@ -7736,104 +7312,103 @@
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
         <f>1/C10</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <f t="shared" ref="D9:O9" si="7">1/D10</f>
         <v>-0.4</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <f t="shared" si="7"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="22">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="I9" s="25" t="e">
+      <c r="I9" s="22" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="22">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="22">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="22">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="22">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="22">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
         <v>-3</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="23">
         <v>-2.5</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <v>-2</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>-1.5</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="23">
         <v>-1</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="23">
         <v>-0.5</v>
       </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26">
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
         <v>0.5</v>
       </c>
-      <c r="K10" s="26">
-        <v>1</v>
-      </c>
-      <c r="L10" s="26">
+      <c r="K10" s="23">
+        <v>1</v>
+      </c>
+      <c r="L10" s="23">
         <v>1.5</v>
       </c>
-      <c r="M10" s="26">
-        <v>2</v>
-      </c>
-      <c r="N10" s="26">
+      <c r="M10" s="23">
+        <v>2</v>
+      </c>
+      <c r="N10" s="23">
         <v>2.5</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="23">
         <v>3</v>
       </c>
     </row>
@@ -7850,86 +7425,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B11E436-BE8B-F544-BBB7-970B9CDC84E6}">
   <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" customWidth="1"/>
-    <col min="12" max="12" width="3.5" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.1796875" customWidth="1"/>
+    <col min="11" max="11" width="4.81640625" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" customWidth="1"/>
-    <col min="16" max="16" width="3.5" customWidth="1"/>
+    <col min="15" max="15" width="5.81640625" customWidth="1"/>
+    <col min="16" max="16" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
         <f>(D21-INT(D21))^2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <f t="shared" ref="E2:P2" si="0">(E21-INT(E21))^2</f>
         <v>0.25</v>
       </c>
-      <c r="F2" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="F2" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H2" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2" s="21">
+      <c r="H2" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J2" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="21">
+      <c r="J2" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L2" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2" s="21">
+      <c r="L2" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="N2" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="21">
+      <c r="N2" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7938,58 +7513,58 @@
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
         <f>INT(D21)^2</f>
         <v>9</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:P3" si="1">INT(E21)^2</f>
         <v>9</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H3" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N3" s="21">
+      <c r="H3" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -7998,58 +7573,58 @@
       <c r="B4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
         <f>D21^2*(D21+1)^2*(D21-1)^2*(D21-2)^2</f>
         <v>14400</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <f t="shared" ref="E4:O4" si="2">E21^2*(E21+1)^2*(E21-1)^2*(E21-2)^2</f>
         <v>3488.37890625</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <f t="shared" si="2"/>
         <v>43.06640625</v>
       </c>
-      <c r="H4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
+      <c r="H4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
         <f t="shared" si="2"/>
         <v>0.87890625</v>
       </c>
-      <c r="J4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
+      <c r="J4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
         <f t="shared" si="2"/>
         <v>0.31640625</v>
       </c>
-      <c r="L4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="L4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
         <f t="shared" si="2"/>
         <v>0.87890625</v>
       </c>
-      <c r="N4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="21">
+      <c r="N4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
         <f t="shared" si="2"/>
         <v>43.06640625</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="18">
         <f>P21^2*(P21+1)^2*(P21-1)^2*(P21-2)^2</f>
         <v>576</v>
       </c>
@@ -8058,58 +7633,58 @@
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="C5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
         <f>D21*(D21+1)*(D21-1)*(D21-2)</f>
         <v>120</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <f t="shared" ref="E5:P5" si="3">E21*(E21+1)*(E21-1)*(E21-2)</f>
         <v>59.0625</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <f t="shared" si="3"/>
         <v>6.5625</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <f t="shared" si="3"/>
         <v>-0.9375</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
         <v>0.5625</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="18">
         <f t="shared" si="3"/>
         <v>-0.9375</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="18">
         <f t="shared" si="3"/>
         <v>6.5625</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="18">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -8118,58 +7693,58 @@
       <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
         <f>(D21-1)^2</f>
         <v>16</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <f t="shared" ref="E6:P6" si="4">(E21-1)^2</f>
         <v>12.25</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="18">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="18">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="18">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -8178,58 +7753,58 @@
       <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="C7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
         <f>D21-1</f>
         <v>-4</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <f t="shared" ref="E7:P7" si="5">E21-1</f>
         <v>-3.5</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <f t="shared" si="5"/>
         <v>-2.5</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="18">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="18">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -8239,58 +7814,58 @@
       <c r="B9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
         <f>(D21-3/2)^2-1/4</f>
         <v>20</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <f t="shared" ref="E9:P9" si="6">(E21-3/2)^2-1/4</f>
         <v>15.75</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <f t="shared" si="6"/>
         <v>8.75</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="18">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="18">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <f t="shared" si="6"/>
         <v>-0.25</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="18">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="18">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -8299,7 +7874,7 @@
       <c r="B10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D10">
@@ -8359,135 +7934,135 @@
       <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
         <f>D21^2-3*D21+2</f>
         <v>20</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <f t="shared" ref="E11:P11" si="8">E21^2-3*E21+2</f>
         <v>15.75</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="18">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <f t="shared" si="8"/>
         <v>-0.25</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="18">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="6" customHeight="1">
       <c r="B12" s="1"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18">
         <f>D21^2+2*D21+3</f>
         <v>6</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <f t="shared" ref="E13:P13" si="9">E21^2+2*E21+3</f>
         <v>4.25</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="18">
         <f t="shared" si="9"/>
         <v>4.25</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <f t="shared" si="9"/>
         <v>8.25</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="18">
         <f t="shared" si="9"/>
         <v>14.25</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="18">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
@@ -8496,135 +8071,135 @@
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
         <f>(D21+1)^2+2</f>
         <v>6</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <f t="shared" ref="E14:P14" si="10">(E21+1)^2+2</f>
         <v>4.25</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="18">
         <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="18">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="18">
         <f t="shared" si="10"/>
         <v>4.25</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <f t="shared" si="10"/>
         <v>8.25</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="18">
         <f t="shared" si="10"/>
         <v>14.25</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="18">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="6" customHeight="1">
       <c r="B15" s="1"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18">
         <f>(1/2)*D21^2-3*D21+6</f>
         <v>19.5</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <f t="shared" ref="E16:P16" si="11">(1/2)*E21^2-3*E21+6</f>
         <v>16.625</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <f t="shared" si="11"/>
         <v>11.625</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="18">
         <f t="shared" si="11"/>
         <v>7.625</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="18">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="18">
         <f t="shared" si="11"/>
         <v>4.625</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="18">
         <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <f t="shared" si="11"/>
         <v>2.625</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="18">
         <f t="shared" si="11"/>
         <v>1.625</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="18">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
@@ -8633,58 +8208,58 @@
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21">
+      <c r="C17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
         <f t="shared" ref="D17:P17" si="12">2*D21^2+3*D21+5</f>
         <v>14</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="18">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="18">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="18">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="18">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="18">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="18">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="18">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="18">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
@@ -8693,58 +8268,58 @@
       <c r="B18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
         <f>D21^2+3*D21+5</f>
         <v>5</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <f t="shared" ref="E18:P18" si="13">E21^2+3*E21+5</f>
         <v>3.75</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <f t="shared" si="13"/>
         <v>2.75</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="18">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="18">
         <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="18">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="18">
         <f t="shared" si="13"/>
         <v>6.75</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="18">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="18">
         <f t="shared" si="13"/>
         <v>11.75</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="18">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="18">
         <f t="shared" si="13"/>
         <v>18.75</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="18">
         <f t="shared" si="13"/>
         <v>23</v>
       </c>
@@ -8753,58 +8328,58 @@
       <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21">
+      <c r="C19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
         <f>D21^2+D21-3</f>
         <v>3</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <f t="shared" ref="E19:P19" si="14">E21^2+E21-3</f>
         <v>0.75</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <f t="shared" si="14"/>
         <v>-2.25</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="18">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="18">
         <f t="shared" si="14"/>
         <v>-3.25</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="18">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="18">
         <f t="shared" si="14"/>
         <v>-2.25</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="18">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="18">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="18">
         <f t="shared" si="14"/>
         <v>5.75</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="18">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
@@ -8813,104 +8388,103 @@
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
         <f>D21^2</f>
         <v>9</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <f t="shared" ref="E20:P20" si="15">E21^2</f>
         <v>6.25</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="18">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="18">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="18">
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="18">
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="18">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="18">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="18">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="18">
         <f t="shared" si="15"/>
         <v>6.25</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="18">
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="9"/>
-      <c r="C21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
         <v>-3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>-2.5</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="19">
         <v>-2</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="19">
         <v>-1.5</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="19">
         <v>-1</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>-0.5</v>
       </c>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="22">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
         <v>0.5</v>
       </c>
-      <c r="L21" s="22">
-        <v>1</v>
-      </c>
-      <c r="M21" s="22">
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
         <v>1.5</v>
       </c>
-      <c r="N21" s="22">
-        <v>2</v>
-      </c>
-      <c r="O21" s="22">
+      <c r="N21" s="19">
+        <v>2</v>
+      </c>
+      <c r="O21" s="19">
         <v>2.5</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="19">
         <v>3</v>
       </c>
     </row>
